--- a/outputs/CERESTRES_results/physchem_avg_2023.xlsx
+++ b/outputs/CERESTRES_results/physchem_avg_2023.xlsx
@@ -1378,12 +1378,9 @@
         <v>6.733333333333333</v>
       </c>
       <c r="I17">
-        <v>-78.16666666666667</v>
+        <v>-380.6666666666667</v>
       </c>
       <c r="J17">
-        <v>-900.9</v>
-      </c>
-      <c r="K17">
         <v>28.1</v>
       </c>
       <c r="L17">
@@ -1438,13 +1435,13 @@
         <v>7</v>
       </c>
       <c r="I18">
-        <v>-165.1333333333333</v>
+        <v>-273.4</v>
       </c>
       <c r="J18">
-        <v>-85.53333333333333</v>
+        <v>29.86666666666667</v>
       </c>
       <c r="K18">
-        <v>107.6</v>
+        <v>147.2</v>
       </c>
       <c r="L18">
         <v>8.543333333333333</v>
@@ -1498,13 +1495,13 @@
         <v>6.866666666666667</v>
       </c>
       <c r="I19">
-        <v>-192.5666666666667</v>
+        <v>-300.5</v>
       </c>
       <c r="J19">
-        <v>-85.40000000000001</v>
+        <v>29.43333333333333</v>
       </c>
       <c r="K19">
-        <v>160.1666666666667</v>
+        <v>226.5</v>
       </c>
       <c r="L19">
         <v>13.85666666666667</v>
@@ -1558,13 +1555,13 @@
         <v>7.033333333333333</v>
       </c>
       <c r="I20">
-        <v>-177.3666666666667</v>
+        <v>-269</v>
       </c>
       <c r="J20">
-        <v>-69.06666666666666</v>
+        <v>29.63333333333333</v>
       </c>
       <c r="K20">
-        <v>90.16666666666666</v>
+        <v>121.1</v>
       </c>
       <c r="L20">
         <v>6.48</v>
@@ -1618,12 +1615,9 @@
         <v>7.2</v>
       </c>
       <c r="I21">
-        <v>-205.0666666666667</v>
+        <v>-300.5666666666667</v>
       </c>
       <c r="J21">
-        <v>-279.5</v>
-      </c>
-      <c r="K21">
         <v>27.6</v>
       </c>
       <c r="L21">
@@ -1678,13 +1672,13 @@
         <v>7</v>
       </c>
       <c r="I22">
-        <v>-192.7333333333333</v>
+        <v>-302.7333333333333</v>
       </c>
       <c r="J22">
-        <v>-87.89999999999999</v>
+        <v>29.03333333333333</v>
       </c>
       <c r="K22">
-        <v>91.3</v>
+        <v>123</v>
       </c>
       <c r="L22">
         <v>9.473333333333333</v>
@@ -1738,13 +1732,13 @@
         <v>6.933333333333334</v>
       </c>
       <c r="I23">
-        <v>-179.1</v>
+        <v>-292.2666666666667</v>
       </c>
       <c r="J23">
-        <v>-90.43333333333334</v>
+        <v>29.46666666666667</v>
       </c>
       <c r="K23">
-        <v>109.6</v>
+        <v>150.8</v>
       </c>
       <c r="L23">
         <v>7.213333333333333</v>
@@ -1798,13 +1792,13 @@
         <v>6.9</v>
       </c>
       <c r="I24">
-        <v>-172.9</v>
+        <v>-276.6333333333333</v>
       </c>
       <c r="J24">
-        <v>-80.8</v>
+        <v>29.9</v>
       </c>
       <c r="K24">
-        <v>167.4333333333333</v>
+        <v>237.2</v>
       </c>
       <c r="L24">
         <v>16.11666666666667</v>
@@ -1858,12 +1852,9 @@
         <v>7</v>
       </c>
       <c r="I25">
-        <v>-144.5333333333333</v>
+        <v>-244.5</v>
       </c>
       <c r="J25">
-        <v>-293</v>
-      </c>
-      <c r="K25">
         <v>28.5</v>
       </c>
       <c r="L25">
@@ -1918,12 +1909,9 @@
         <v>6.966666666666667</v>
       </c>
       <c r="I26">
-        <v>-120.0333333333333</v>
+        <v>-152.4</v>
       </c>
       <c r="J26">
-        <v>-90.09999999999999</v>
-      </c>
-      <c r="K26">
         <v>28.7</v>
       </c>
       <c r="L26">
@@ -1978,13 +1966,13 @@
         <v>7.1</v>
       </c>
       <c r="I27">
-        <v>-148.9333333333333</v>
+        <v>-232.3</v>
       </c>
       <c r="J27">
-        <v>-61.63333333333333</v>
+        <v>28.63333333333333</v>
       </c>
       <c r="K27">
-        <v>81.63333333333333</v>
+        <v>108.6</v>
       </c>
       <c r="L27">
         <v>6.323333333333333</v>
@@ -2038,13 +2026,13 @@
         <v>7.133333333333333</v>
       </c>
       <c r="I28">
-        <v>-219.5333333333334</v>
+        <v>-303.2333333333333</v>
       </c>
       <c r="J28">
-        <v>-61.33333333333334</v>
+        <v>29.3</v>
       </c>
       <c r="K28">
-        <v>165.5</v>
+        <v>234.3</v>
       </c>
       <c r="L28">
         <v>12.95</v>
@@ -2098,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="I29">
-        <v>-200.9666666666667</v>
+        <v>-282.4333333333333</v>
       </c>
       <c r="J29">
-        <v>-59.4</v>
+        <v>28.9</v>
       </c>
       <c r="K29">
-        <v>134.1</v>
+        <v>187.4</v>
       </c>
       <c r="L29">
         <v>10.55666666666667</v>
@@ -2158,12 +2146,9 @@
         <v>7.1</v>
       </c>
       <c r="I30">
-        <v>-195.7</v>
+        <v>-240.9</v>
       </c>
       <c r="J30">
-        <v>-128.4</v>
-      </c>
-      <c r="K30">
         <v>28.1</v>
       </c>
       <c r="L30">
@@ -2218,13 +2203,13 @@
         <v>6.966666666666667</v>
       </c>
       <c r="I31">
-        <v>-192.4333333333333</v>
+        <v>-270.2666666666667</v>
       </c>
       <c r="J31">
-        <v>-55.93333333333334</v>
+        <v>28.73333333333333</v>
       </c>
       <c r="K31">
-        <v>80.66666666666667</v>
+        <v>107.2</v>
       </c>
       <c r="L31">
         <v>6.2</v>
@@ -2278,13 +2263,13 @@
         <v>7.033333333333333</v>
       </c>
       <c r="I32">
-        <v>-154.1333333333333</v>
+        <v>-456.6333333333333</v>
       </c>
       <c r="J32">
-        <v>-283.9333333333333</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="K32">
-        <v>84.53333333333333</v>
+        <v>112.75</v>
       </c>
       <c r="L32">
         <v>8.56</v>
@@ -2338,13 +2323,13 @@
         <v>7.066666666666666</v>
       </c>
       <c r="I33">
-        <v>-235.6666666666667</v>
+        <v>-343.9333333333333</v>
       </c>
       <c r="J33">
-        <v>-90.13333333333334</v>
+        <v>25.26666666666667</v>
       </c>
       <c r="K33">
-        <v>47.86666666666667</v>
+        <v>57.6</v>
       </c>
       <c r="L33">
         <v>4.723333333333333</v>
@@ -2398,13 +2383,13 @@
         <v>7.033333333333333</v>
       </c>
       <c r="I34">
-        <v>-204.0666666666667</v>
+        <v>-312</v>
       </c>
       <c r="J34">
-        <v>-89.7</v>
+        <v>25.13333333333333</v>
       </c>
       <c r="K34">
-        <v>49.16666666666666</v>
+        <v>60</v>
       </c>
       <c r="L34">
         <v>6.256666666666667</v>
@@ -2458,13 +2443,13 @@
         <v>7.1</v>
       </c>
       <c r="I35">
-        <v>-205.3</v>
+        <v>-296.9333333333333</v>
       </c>
       <c r="J35">
-        <v>-72.90000000000001</v>
+        <v>25.8</v>
       </c>
       <c r="K35">
-        <v>44.8</v>
+        <v>53.05</v>
       </c>
       <c r="L35">
         <v>4.256666666666667</v>
@@ -2518,13 +2503,13 @@
         <v>7.266666666666667</v>
       </c>
       <c r="I36">
-        <v>-190</v>
+        <v>-285.5</v>
       </c>
       <c r="J36">
-        <v>-77.06666666666666</v>
+        <v>25.3</v>
       </c>
       <c r="K36">
-        <v>62.13333333333333</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="L36">
         <v>6.443333333333333</v>
@@ -2578,13 +2563,13 @@
         <v>7.166666666666666</v>
       </c>
       <c r="I37">
-        <v>-223.9666666666667</v>
+        <v>-333.9666666666666</v>
       </c>
       <c r="J37">
-        <v>-91.3</v>
+        <v>25.63333333333333</v>
       </c>
       <c r="K37">
-        <v>66.66666666666667</v>
+        <v>86.05</v>
       </c>
       <c r="L37">
         <v>8.473333333333333</v>
@@ -2638,13 +2623,13 @@
         <v>7.033333333333333</v>
       </c>
       <c r="I38">
-        <v>-210.6666666666667</v>
+        <v>-323.8333333333333</v>
       </c>
       <c r="J38">
-        <v>-94.16666666666667</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="K38">
-        <v>50.8</v>
+        <v>62.6</v>
       </c>
       <c r="L38">
         <v>4.183333333333334</v>
@@ -2698,13 +2683,13 @@
         <v>7.033333333333333</v>
       </c>
       <c r="I39">
-        <v>-218</v>
+        <v>-321.7333333333333</v>
       </c>
       <c r="J39">
-        <v>-85.19999999999999</v>
+        <v>25.5</v>
       </c>
       <c r="K39">
-        <v>94.5</v>
+        <v>127.8</v>
       </c>
       <c r="L39">
         <v>11.91333333333333</v>
@@ -2758,13 +2743,13 @@
         <v>7</v>
       </c>
       <c r="I40">
-        <v>-145.0333333333333</v>
+        <v>-245</v>
       </c>
       <c r="J40">
-        <v>-81.33333333333333</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="K40">
-        <v>83.90000000000001</v>
+        <v>111.6</v>
       </c>
       <c r="L40">
         <v>9.043333333333333</v>
@@ -2818,13 +2803,13 @@
         <v>7.066666666666666</v>
       </c>
       <c r="I41">
-        <v>-208.6666666666667</v>
+        <v>-241.0333333333333</v>
       </c>
       <c r="J41">
-        <v>-13.4</v>
+        <v>26.2</v>
       </c>
       <c r="K41">
-        <v>73.40000000000001</v>
+        <v>95.75</v>
       </c>
       <c r="L41">
         <v>8.433333333333334</v>
@@ -2878,13 +2863,13 @@
         <v>7.066666666666666</v>
       </c>
       <c r="I42">
-        <v>-209</v>
+        <v>-292.3666666666667</v>
       </c>
       <c r="J42">
-        <v>-64.8</v>
+        <v>25.46666666666667</v>
       </c>
       <c r="K42">
-        <v>41.3</v>
+        <v>48.1</v>
       </c>
       <c r="L42">
         <v>4.036666666666667</v>
@@ -2938,13 +2923,13 @@
         <v>7.066666666666666</v>
       </c>
       <c r="I43">
-        <v>-247.9666666666667</v>
+        <v>-331.6666666666667</v>
       </c>
       <c r="J43">
-        <v>-64.83333333333333</v>
+        <v>25.8</v>
       </c>
       <c r="K43">
-        <v>59.86666666666667</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="L43">
         <v>5.723333333333334</v>
@@ -2998,13 +2983,13 @@
         <v>7</v>
       </c>
       <c r="I44">
-        <v>-236.3333333333333</v>
+        <v>-317.8</v>
       </c>
       <c r="J44">
-        <v>-63.13333333333333</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="K44">
-        <v>39.7</v>
+        <v>45.8</v>
       </c>
       <c r="L44">
         <v>4.216666666666667</v>
@@ -3058,13 +3043,13 @@
         <v>7.233333333333333</v>
       </c>
       <c r="I45">
-        <v>-222.6</v>
+        <v>-267.8</v>
       </c>
       <c r="J45">
-        <v>-26.33333333333334</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="K45">
-        <v>71.46666666666667</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="L45">
         <v>7.743333333333333</v>
@@ -3118,13 +3103,13 @@
         <v>7.1</v>
       </c>
       <c r="I46">
-        <v>-248.6333333333333</v>
+        <v>-326.4666666666667</v>
       </c>
       <c r="J46">
-        <v>-59.53333333333333</v>
+        <v>25.13333333333333</v>
       </c>
       <c r="K46">
-        <v>45.23333333333333</v>
+        <v>54.05</v>
       </c>
       <c r="L46">
         <v>3.306666666666667</v>

--- a/outputs/CERESTRES_results/physchem_avg_2023.xlsx
+++ b/outputs/CERESTRES_results/physchem_avg_2023.xlsx
@@ -1378,10 +1378,13 @@
         <v>6.733333333333333</v>
       </c>
       <c r="I17">
-        <v>-380.6666666666667</v>
+        <v>-114</v>
       </c>
       <c r="J17">
         <v>28.1</v>
+      </c>
+      <c r="K17">
+        <v>87.09999999999999</v>
       </c>
       <c r="L17">
         <v>6.65</v>
@@ -1441,7 +1444,7 @@
         <v>29.86666666666667</v>
       </c>
       <c r="K18">
-        <v>147.2</v>
+        <v>117.7666666666667</v>
       </c>
       <c r="L18">
         <v>8.543333333333333</v>
@@ -1501,7 +1504,7 @@
         <v>29.43333333333333</v>
       </c>
       <c r="K19">
-        <v>226.5</v>
+        <v>175.0666666666667</v>
       </c>
       <c r="L19">
         <v>13.85666666666667</v>
@@ -1561,7 +1564,7 @@
         <v>29.63333333333333</v>
       </c>
       <c r="K20">
-        <v>121.1</v>
+        <v>97.19999999999999</v>
       </c>
       <c r="L20">
         <v>6.48</v>
@@ -1620,6 +1623,9 @@
       <c r="J21">
         <v>27.6</v>
       </c>
+      <c r="K21">
+        <v>75.5</v>
+      </c>
       <c r="L21">
         <v>5.7</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>29.03333333333333</v>
       </c>
       <c r="K22">
-        <v>123</v>
+        <v>133.5</v>
       </c>
       <c r="L22">
         <v>9.473333333333333</v>
@@ -1738,7 +1744,7 @@
         <v>29.46666666666667</v>
       </c>
       <c r="K23">
-        <v>150.8</v>
+        <v>109.5333333333333</v>
       </c>
       <c r="L23">
         <v>7.213333333333333</v>
@@ -1798,7 +1804,7 @@
         <v>29.9</v>
       </c>
       <c r="K24">
-        <v>237.2</v>
+        <v>219.1333333333333</v>
       </c>
       <c r="L24">
         <v>16.11666666666667</v>
@@ -1857,6 +1863,9 @@
       <c r="J25">
         <v>28.5</v>
       </c>
+      <c r="K25">
+        <v>113.7</v>
+      </c>
       <c r="L25">
         <v>8.31</v>
       </c>
@@ -1914,6 +1923,9 @@
       <c r="J26">
         <v>28.7</v>
       </c>
+      <c r="K26">
+        <v>125.2</v>
+      </c>
       <c r="L26">
         <v>9.43</v>
       </c>
@@ -1972,7 +1984,7 @@
         <v>28.63333333333333</v>
       </c>
       <c r="K27">
-        <v>108.6</v>
+        <v>90.03333333333333</v>
       </c>
       <c r="L27">
         <v>6.323333333333333</v>
@@ -2026,13 +2038,13 @@
         <v>7.133333333333333</v>
       </c>
       <c r="I28">
-        <v>-303.2333333333333</v>
+        <v>-304.9</v>
       </c>
       <c r="J28">
         <v>29.3</v>
       </c>
       <c r="K28">
-        <v>234.3</v>
+        <v>165.6666666666667</v>
       </c>
       <c r="L28">
         <v>12.95</v>
@@ -2092,7 +2104,7 @@
         <v>28.9</v>
       </c>
       <c r="K29">
-        <v>187.4</v>
+        <v>146.7333333333333</v>
       </c>
       <c r="L29">
         <v>10.55666666666667</v>
@@ -2151,6 +2163,9 @@
       <c r="J30">
         <v>28.1</v>
       </c>
+      <c r="K30">
+        <v>100.3</v>
+      </c>
       <c r="L30">
         <v>7.67</v>
       </c>
@@ -2209,7 +2224,7 @@
         <v>28.73333333333333</v>
       </c>
       <c r="K31">
-        <v>107.2</v>
+        <v>89.2</v>
       </c>
       <c r="L31">
         <v>6.2</v>
@@ -2263,13 +2278,13 @@
         <v>7.033333333333333</v>
       </c>
       <c r="I32">
-        <v>-456.6333333333333</v>
+        <v>-189.9666666666667</v>
       </c>
       <c r="J32">
         <v>25.73333333333333</v>
       </c>
       <c r="K32">
-        <v>112.75</v>
+        <v>104.2</v>
       </c>
       <c r="L32">
         <v>8.56</v>
@@ -2329,7 +2344,7 @@
         <v>25.26666666666667</v>
       </c>
       <c r="K33">
-        <v>57.6</v>
+        <v>58.03333333333333</v>
       </c>
       <c r="L33">
         <v>4.723333333333333</v>
@@ -2389,7 +2404,7 @@
         <v>25.13333333333333</v>
       </c>
       <c r="K34">
-        <v>60</v>
+        <v>64.06666666666666</v>
       </c>
       <c r="L34">
         <v>6.256666666666667</v>
@@ -2449,7 +2464,7 @@
         <v>25.8</v>
       </c>
       <c r="K35">
-        <v>53.05</v>
+        <v>51.83333333333334</v>
       </c>
       <c r="L35">
         <v>4.256666666666667</v>
@@ -2509,7 +2524,7 @@
         <v>25.3</v>
       </c>
       <c r="K36">
-        <v>79.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="L36">
         <v>6.443333333333333</v>
@@ -2569,7 +2584,7 @@
         <v>25.63333333333333</v>
       </c>
       <c r="K37">
-        <v>86.05</v>
+        <v>108.8666666666667</v>
       </c>
       <c r="L37">
         <v>8.473333333333333</v>
@@ -2629,7 +2644,7 @@
         <v>25.73333333333333</v>
       </c>
       <c r="K38">
-        <v>62.6</v>
+        <v>50.73333333333333</v>
       </c>
       <c r="L38">
         <v>4.183333333333334</v>
@@ -2689,7 +2704,7 @@
         <v>25.5</v>
       </c>
       <c r="K39">
-        <v>127.8</v>
+        <v>146.2</v>
       </c>
       <c r="L39">
         <v>11.91333333333333</v>
@@ -2749,7 +2764,7 @@
         <v>25.83333333333333</v>
       </c>
       <c r="K40">
-        <v>111.6</v>
+        <v>112.3</v>
       </c>
       <c r="L40">
         <v>9.043333333333333</v>
@@ -2809,7 +2824,7 @@
         <v>26.2</v>
       </c>
       <c r="K41">
-        <v>95.75</v>
+        <v>105.5666666666667</v>
       </c>
       <c r="L41">
         <v>8.433333333333334</v>
@@ -2869,7 +2884,7 @@
         <v>25.46666666666667</v>
       </c>
       <c r="K42">
-        <v>48.1</v>
+        <v>49.7</v>
       </c>
       <c r="L42">
         <v>4.036666666666667</v>
@@ -2923,13 +2938,13 @@
         <v>7.066666666666666</v>
       </c>
       <c r="I43">
-        <v>-331.6666666666667</v>
+        <v>-333.3333333333333</v>
       </c>
       <c r="J43">
         <v>25.8</v>
       </c>
       <c r="K43">
-        <v>75.84999999999999</v>
+        <v>60.03333333333333</v>
       </c>
       <c r="L43">
         <v>5.723333333333334</v>
@@ -2989,7 +3004,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="K44">
-        <v>45.8</v>
+        <v>52.33333333333334</v>
       </c>
       <c r="L44">
         <v>4.216666666666667</v>
@@ -3049,7 +3064,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="K45">
-        <v>93.15000000000001</v>
+        <v>95.53333333333333</v>
       </c>
       <c r="L45">
         <v>7.743333333333333</v>
@@ -3109,7 +3124,7 @@
         <v>25.13333333333333</v>
       </c>
       <c r="K46">
-        <v>54.05</v>
+        <v>53.76666666666667</v>
       </c>
       <c r="L46">
         <v>3.306666666666667</v>
